--- a/Model_Saved/GpyOpt_hyperparameter_YW_master/BO_hyperparameter.xlsx
+++ b/Model_Saved/GpyOpt_hyperparameter_YW_master/BO_hyperparameter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,13 +470,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8118016909034259</v>
+        <v>0.8433105132328607</v>
       </c>
       <c r="C2" t="n">
-        <v>2.492384910583496</v>
+        <v>2.314339399337769</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
         <v>256</v>
@@ -493,19 +493,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8030469553243147</v>
+        <v>0.8377569823949796</v>
       </c>
       <c r="C3" t="n">
-        <v>2.670072555541992</v>
+        <v>2.411569833755493</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
         <v>256</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1936343557019629</v>
+        <v>0.1</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -516,10 +516,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7810812853973674</v>
+        <v>0.8261292846778669</v>
       </c>
       <c r="C4" t="n">
-        <v>2.752784013748169</v>
+        <v>14.47366619110107</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
@@ -528,10 +528,10 @@
         <v>256</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1948334900492679</v>
+        <v>0.1584858598753454</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -539,19 +539,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7790430724272803</v>
+        <v>0.8185172149544615</v>
       </c>
       <c r="C5" t="n">
-        <v>18.39330101013184</v>
+        <v>15.10732650756836</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>256</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3491897607948127</v>
+        <v>0.1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7766129043415024</v>
+        <v>0.8131181644426544</v>
       </c>
       <c r="C6" t="n">
-        <v>2.694055318832397</v>
+        <v>15.55676651000977</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
         <v>256</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2815992947019295</v>
+        <v>0.1600951850138194</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -585,22 +585,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7732338999859425</v>
+        <v>0.7811231164847281</v>
       </c>
       <c r="C7" t="n">
-        <v>2.761571168899536</v>
+        <v>18.22015190124512</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1792405956339515</v>
+        <v>0.5</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -608,19 +608,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7711022670402772</v>
+        <v>0.770844821732168</v>
       </c>
       <c r="C8" t="n">
-        <v>2.670309543609619</v>
+        <v>2.757174968719482</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
         <v>256</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2137694623957873</v>
+        <v>0.5</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -631,10 +631,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7680586476382778</v>
+        <v>0.7625848161079505</v>
       </c>
       <c r="C9" t="n">
-        <v>2.65914249420166</v>
+        <v>19.76335334777832</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -643,10 +643,10 @@
         <v>256</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1</v>
+        <v>0.1561547754380935</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -654,22 +654,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.761246490865819</v>
+        <v>0.7509162543369563</v>
       </c>
       <c r="C10" t="n">
-        <v>2.665443658828735</v>
+        <v>20.73469161987305</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="F10" t="n">
-        <v>0.304600293011689</v>
+        <v>0.2253696712636971</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -677,19 +677,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7599038873574111</v>
+        <v>0.72059244316902</v>
       </c>
       <c r="C11" t="n">
-        <v>19.98652648925781</v>
+        <v>23.25896072387695</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3066030883152408</v>
+        <v>0.368187004071361</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -700,19 +700,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7589722651830476</v>
+        <v>0.7157866658529181</v>
       </c>
       <c r="C12" t="n">
-        <v>20.06407928466797</v>
+        <v>23.65901184082031</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2508202515290255</v>
+        <v>0.4505556609184154</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -723,19 +723,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7589444089491666</v>
+        <v>0.7082741793797126</v>
       </c>
       <c r="C13" t="n">
-        <v>20.0663948059082</v>
+        <v>24.28437995910645</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3176367942193286</v>
+        <v>0.4202978274702147</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -746,19 +746,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.758550043177324</v>
+        <v>0.691154452727488</v>
       </c>
       <c r="C14" t="n">
-        <v>3.068703413009644</v>
+        <v>3.569031000137329</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1</v>
+        <v>0.1792405956339515</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -769,19 +769,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7582085244581911</v>
+        <v>0.6848504444755665</v>
       </c>
       <c r="C15" t="n">
-        <v>20.12765502929688</v>
+        <v>26.23426055908203</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2849556275367006</v>
+        <v>0.3234759313783007</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7576148121085986</v>
+        <v>0.6835462376881287</v>
       </c>
       <c r="C16" t="n">
-        <v>3.03516697883606</v>
+        <v>3.495368719100952</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4840763013352979</v>
+        <v>0.2669219209468508</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -815,19 +815,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7571728876436873</v>
+        <v>0.6223094532885418</v>
       </c>
       <c r="C17" t="n">
-        <v>3.035988092422485</v>
+        <v>4.30893611907959</v>
       </c>
       <c r="D17" t="n">
         <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1200129663222143</v>
+        <v>0.3769290462677256</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -838,366 +838,21 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7543356611527152</v>
+        <v>0.5419340921399665</v>
       </c>
       <c r="C18" t="n">
-        <v>20.45004463195801</v>
+        <v>38.13117218017578</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1561547754380935</v>
+        <v>0.4873046302877591</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.7511852902481017</v>
-      </c>
-      <c r="C19" t="n">
-        <v>20.7122917175293</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>256</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.3096888512729282</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.7501707011997207</v>
-      </c>
-      <c r="C20" t="n">
-        <v>3.003066301345825</v>
-      </c>
-      <c r="D20" t="n">
-        <v>4</v>
-      </c>
-      <c r="E20" t="n">
-        <v>64</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.1353632288747306</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.749660317031687</v>
-      </c>
-      <c r="C21" t="n">
-        <v>3.310977935791016</v>
-      </c>
-      <c r="D21" t="n">
-        <v>4</v>
-      </c>
-      <c r="E21" t="n">
-        <v>128</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.3769290462677256</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.7483400019969969</v>
-      </c>
-      <c r="C22" t="n">
-        <v>20.94914627075195</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" t="n">
-        <v>64</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.2253696712636971</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.7461637350784998</v>
-      </c>
-      <c r="C23" t="n">
-        <v>21.13030815124512</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>256</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.7450436593280363</v>
-      </c>
-      <c r="C24" t="n">
-        <v>21.22354698181152</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>32</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.3234759313783007</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.7425927999894186</v>
-      </c>
-      <c r="C25" t="n">
-        <v>3.212837934494019</v>
-      </c>
-      <c r="D25" t="n">
-        <v>4</v>
-      </c>
-      <c r="E25" t="n">
-        <v>64</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.7368564581887277</v>
-      </c>
-      <c r="C26" t="n">
-        <v>21.90508270263672</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>256</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.4515410914318659</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.7342793425998303</v>
-      </c>
-      <c r="C27" t="n">
-        <v>3.126103162765503</v>
-      </c>
-      <c r="D27" t="n">
-        <v>4</v>
-      </c>
-      <c r="E27" t="n">
-        <v>64</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.1990583966951995</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.727294612349993</v>
-      </c>
-      <c r="C28" t="n">
-        <v>22.7010440826416</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" t="n">
-        <v>32</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.7270491103792481</v>
-      </c>
-      <c r="C29" t="n">
-        <v>3.249280691146851</v>
-      </c>
-      <c r="D29" t="n">
-        <v>4</v>
-      </c>
-      <c r="E29" t="n">
-        <v>64</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.2669219209468508</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.7058037946512647</v>
-      </c>
-      <c r="C30" t="n">
-        <v>24.49002456665039</v>
-      </c>
-      <c r="D30" t="n">
-        <v>2</v>
-      </c>
-      <c r="E30" t="n">
-        <v>32</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.368187004071361</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.7054071585635118</v>
-      </c>
-      <c r="C31" t="n">
-        <v>24.52304077148438</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" t="n">
-        <v>32</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.4505556609184154</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.7018290634664999</v>
-      </c>
-      <c r="C32" t="n">
-        <v>24.82089614868164</v>
-      </c>
-      <c r="D32" t="n">
-        <v>2</v>
-      </c>
-      <c r="E32" t="n">
-        <v>32</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.4202978274702147</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.6563907036494143</v>
-      </c>
-      <c r="C33" t="n">
-        <v>28.60336303710938</v>
-      </c>
-      <c r="D33" t="n">
-        <v>4</v>
-      </c>
-      <c r="E33" t="n">
-        <v>128</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.4873046302877591</v>
-      </c>
-      <c r="G33" t="n">
         <v>0</v>
       </c>
     </row>
